--- a/Makeover1/mrsd_2019LabourForce_T7.xlsx
+++ b/Makeover1/mrsd_2019LabourForce_T7.xlsx
@@ -1,60 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC52C9B9-1C3F-43C8-B690-FA3EA1AD1CCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T7_T" sheetId="1" r:id="rId1"/>
-    <sheet name="T7_M" sheetId="2" r:id="rId2"/>
-    <sheet name="T7_F" sheetId="3" r:id="rId3"/>
+    <sheet name="RLF" sheetId="4" r:id="rId1"/>
+    <sheet name="T7_T" sheetId="1" r:id="rId2"/>
+    <sheet name="T7_M" sheetId="2" r:id="rId3"/>
+    <sheet name="T7_F" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="_Regression_Int" localSheetId="3" hidden="1">1</definedName>
     <definedName name="_Regression_Int" localSheetId="2" hidden="1">1</definedName>
     <definedName name="_Regression_Int" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="a" localSheetId="0">#REF!</definedName>
+    <definedName name="a" localSheetId="3">#REF!</definedName>
     <definedName name="a" localSheetId="2">#REF!</definedName>
     <definedName name="a" localSheetId="1">#REF!</definedName>
-    <definedName name="a" localSheetId="0">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
+    <definedName name="Economically_Inactive" localSheetId="0">#REF!</definedName>
+    <definedName name="Economically_Inactive" localSheetId="3">#REF!</definedName>
     <definedName name="Economically_Inactive" localSheetId="2">#REF!</definedName>
     <definedName name="Economically_Inactive" localSheetId="1">#REF!</definedName>
-    <definedName name="Economically_Inactive" localSheetId="0">#REF!</definedName>
     <definedName name="Economically_Inactive">#REF!</definedName>
+    <definedName name="Employed" localSheetId="0">#REF!</definedName>
+    <definedName name="Employed" localSheetId="3">#REF!</definedName>
     <definedName name="Employed" localSheetId="2">#REF!</definedName>
     <definedName name="Employed" localSheetId="1">#REF!</definedName>
-    <definedName name="Employed" localSheetId="0">#REF!</definedName>
     <definedName name="Employed">#REF!</definedName>
-    <definedName name="Print_Area_MI" localSheetId="2">T7_F!$B$1:$Z$19</definedName>
-    <definedName name="Print_Area_MI" localSheetId="1">T7_M!$B$1:$Z$19</definedName>
-    <definedName name="Print_Area_MI" localSheetId="0">T7_T!$B$1:$Z$19</definedName>
+    <definedName name="Print_Area_MI" localSheetId="0">RLF!$B$1:$Z$19</definedName>
+    <definedName name="Print_Area_MI" localSheetId="3">T7_F!$B$1:$Z$19</definedName>
+    <definedName name="Print_Area_MI" localSheetId="2">T7_M!$B$1:$Z$19</definedName>
+    <definedName name="Print_Area_MI" localSheetId="1">T7_T!$B$1:$Z$19</definedName>
     <definedName name="Print_Area_MI">#REF!</definedName>
+    <definedName name="Table" localSheetId="0">#REF!</definedName>
+    <definedName name="Table" localSheetId="3">#REF!</definedName>
     <definedName name="Table" localSheetId="2">#REF!</definedName>
     <definedName name="Table" localSheetId="1">#REF!</definedName>
-    <definedName name="Table" localSheetId="0">#REF!</definedName>
     <definedName name="Table">#REF!</definedName>
+    <definedName name="Unemployed" localSheetId="0">#REF!</definedName>
+    <definedName name="Unemployed" localSheetId="3">#REF!</definedName>
     <definedName name="Unemployed" localSheetId="2">#REF!</definedName>
     <definedName name="Unemployed" localSheetId="1">#REF!</definedName>
-    <definedName name="Unemployed" localSheetId="0">#REF!</definedName>
     <definedName name="Unemployed">#REF!</definedName>
+    <definedName name="Unemployed_Residents_Aged_Fifteen_Years_and_Over_by" localSheetId="0">#REF!</definedName>
+    <definedName name="Unemployed_Residents_Aged_Fifteen_Years_and_Over_by" localSheetId="3">#REF!</definedName>
     <definedName name="Unemployed_Residents_Aged_Fifteen_Years_and_Over_by" localSheetId="2">#REF!</definedName>
     <definedName name="Unemployed_Residents_Aged_Fifteen_Years_and_Over_by" localSheetId="1">#REF!</definedName>
-    <definedName name="Unemployed_Residents_Aged_Fifteen_Years_and_Over_by" localSheetId="0">#REF!</definedName>
     <definedName name="Unemployed_Residents_Aged_Fifteen_Years_and_Over_by">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
   <si>
     <t>Source:  Comprehensive Labour Force Survey, Manpower Research &amp; Statistics Department, MOM</t>
   </si>
@@ -179,14 +198,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="7"/>
       <name val="Helv"/>
@@ -318,7 +338,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -394,6 +414,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,30 +438,34 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" textRotation="180"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="180"/>
     </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_T10 (3)" xfId="4"/>
-    <cellStyle name="Normal_T2" xfId="2"/>
-    <cellStyle name="Normal_T2 (2)" xfId="3"/>
-    <cellStyle name="Normal_T3 (2)" xfId="1"/>
+    <cellStyle name="Normal_T10 (3)" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_T2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_T2 (2)" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_T3 (2)" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -729,136 +762,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B67A545-96A6-40CB-8D74-B34241615FC6}">
   <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.09765625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.09765625" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.09765625" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.09765625" style="2" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.09765625" style="2" customWidth="1"/>
     <col min="17" max="17" width="11" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.09765625" style="2" customWidth="1"/>
     <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="3.09765625" style="2" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.09765625" style="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.09765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.5703125" style="1"/>
+    <col min="26" max="26" width="3.09765625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-    </row>
-    <row r="2" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-    </row>
-    <row r="3" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="21"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -888,59 +921,59 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31" t="s">
+      <c r="R5" s="34"/>
+      <c r="S5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31" t="s">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31" t="s">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31" t="s">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="32"/>
-    </row>
-    <row r="6" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="18"/>
       <c r="C6" s="24" t="s">
@@ -992,320 +1025,386 @@
       </c>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="19"/>
       <c r="C7" s="12"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14">
-        <v>31.8</v>
+      <c r="E7" s="41">
+        <f>T7_T!E7/T7_T!E$6</f>
+        <v>1.6014503701465479E-2</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="14">
-        <v>41.2</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="14">
-        <v>33.9</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="14">
-        <v>31.3</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="14">
-        <v>31</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="14">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="14">
-        <v>37.9</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="14">
-        <v>35</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="14">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="14">
-        <v>36.299999999999997</v>
+      <c r="G7" s="41">
+        <f>T7_T!G7/T7_T!G$6</f>
+        <v>2.0124065842817371E-2</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41">
+        <f>T7_T!I7/T7_T!I$6</f>
+        <v>1.6441517234748331E-2</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41">
+        <f>T7_T!K7/T7_T!K$6</f>
+        <v>1.5993583695036801E-2</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41">
+        <f>T7_T!M7/T7_T!M$6</f>
+        <v>1.4634374415560127E-2</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41">
+        <f>T7_T!O7/T7_T!O$6</f>
+        <v>1.4186344499359328E-2</v>
+      </c>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41">
+        <f>T7_T!Q7/T7_T!Q$6</f>
+        <v>1.8008332213412175E-2</v>
+      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41">
+        <f>T7_T!S7/T7_T!S$6</f>
+        <v>1.6787739192062365E-2</v>
+      </c>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41">
+        <f>T7_T!U7/T7_T!U$6</f>
+        <v>1.5420540159492445E-2</v>
+      </c>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41">
+        <f>T7_T!W7/T7_T!W$6</f>
+        <v>1.644349456972129E-2</v>
+      </c>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41">
+        <f>T7_T!Y7/T7_T!Y$6</f>
+        <v>1.5589435258750266E-2</v>
       </c>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="19"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14">
-        <v>146.30000000000001</v>
+      <c r="E8" s="41">
+        <f>T7_T!E8/T7_T!E$6</f>
+        <v>7.3676789041647789E-2</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="14">
-        <v>157.6</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14">
-        <v>162.1</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="14">
-        <v>171.3</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="14">
-        <v>157.1</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="14">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="14">
-        <v>166.2</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="14">
-        <v>162.5</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="14">
-        <v>153.19999999999999</v>
-      </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="14">
-        <v>151.30000000000001</v>
-      </c>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="14">
-        <v>148.9</v>
+      <c r="G8" s="41">
+        <f>T7_T!G8/T7_T!G$6</f>
+        <v>7.6979436330777126E-2</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="41">
+        <f>T7_T!I8/T7_T!I$6</f>
+        <v>7.7928945723763285E-2</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="41">
+        <f>T7_T!K8/T7_T!K$6</f>
+        <v>8.0817135308548796E-2</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="41">
+        <f>T7_T!M8/T7_T!M$6</f>
+        <v>7.3452403216757056E-2</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="41">
+        <f>T7_T!O8/T7_T!O$6</f>
+        <v>7.3768991396668496E-2</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41">
+        <f>T7_T!Q8/T7_T!Q$6</f>
+        <v>7.4452358553957793E-2</v>
+      </c>
+      <c r="R8" s="42"/>
+      <c r="S8" s="41">
+        <f>T7_T!S8/T7_T!S$6</f>
+        <v>7.1979092841956069E-2</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="41">
+        <f>T7_T!U8/T7_T!U$6</f>
+        <v>6.7497907212406921E-2</v>
+      </c>
+      <c r="V8" s="42"/>
+      <c r="W8" s="41">
+        <f>T7_T!W8/T7_T!W$6</f>
+        <v>6.5992061761242213E-2</v>
+      </c>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="41">
+        <f>T7_T!Y8/T7_T!Y$6</f>
+        <v>6.3946746832724929E-2</v>
       </c>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="19"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9">
-        <v>220.7</v>
+      <c r="E9" s="41">
+        <f>T7_T!E9/T7_T!E$6</f>
+        <v>0.11114468449413305</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="9">
-        <v>223.2</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9">
-        <v>214.6</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9">
-        <v>207.3</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9">
-        <v>209.7</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9">
-        <v>217.6</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9">
-        <v>219.4</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9">
-        <v>239.3</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9">
-        <v>229.3</v>
-      </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="9">
-        <v>236.7</v>
-      </c>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="9">
-        <v>239</v>
+      <c r="G9" s="41">
+        <f>T7_T!G9/T7_T!G$6</f>
+        <v>0.10902163825526302</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="41">
+        <f>T7_T!I9/T7_T!I$6</f>
+        <v>0.10316811691745589</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="41">
+        <f>T7_T!K9/T7_T!K$6</f>
+        <v>9.7801471975844503E-2</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="41">
+        <f>T7_T!M9/T7_T!M$6</f>
+        <v>9.8045633065270227E-2</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="41">
+        <f>T7_T!O9/T7_T!O$6</f>
+        <v>9.9578985905180314E-2</v>
+      </c>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41">
+        <f>T7_T!Q9/T7_T!Q$6</f>
+        <v>9.8284280786632622E-2</v>
+      </c>
+      <c r="R9" s="42"/>
+      <c r="S9" s="41">
+        <f>T7_T!S9/T7_T!S$6</f>
+        <v>0.10599751948972361</v>
+      </c>
+      <c r="T9" s="42"/>
+      <c r="U9" s="41">
+        <f>T7_T!U9/T7_T!U$6</f>
+        <v>0.10102656738776052</v>
+      </c>
+      <c r="V9" s="42"/>
+      <c r="W9" s="41">
+        <f>T7_T!W9/T7_T!W$6</f>
+        <v>0.10324072054782571</v>
+      </c>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="41">
+        <f>T7_T!Y9/T7_T!Y$6</f>
+        <v>0.10264118531243289</v>
       </c>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="19"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
-        <v>248.3</v>
+      <c r="E10" s="41">
+        <f>T7_T!E10/T7_T!E$6</f>
+        <v>0.12504406506521629</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="9">
-        <v>254.7</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9">
-        <v>249.4</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9">
-        <v>245</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9">
-        <v>248.6</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9">
-        <v>250.1</v>
-      </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9">
-        <v>243.7</v>
-      </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="9">
-        <v>244.7</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9">
-        <v>242.4</v>
-      </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="9">
-        <v>241.2</v>
-      </c>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="9">
-        <v>253.7</v>
+      <c r="G10" s="41">
+        <f>T7_T!G10/T7_T!G$6</f>
+        <v>0.12440775655741708</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="41">
+        <f>T7_T!I10/T7_T!I$6</f>
+        <v>0.11989808182298929</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="41">
+        <f>T7_T!K10/T7_T!K$6</f>
+        <v>0.11558784676354029</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="41">
+        <f>T7_T!M10/T7_T!M$6</f>
+        <v>0.11623340190761174</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="41">
+        <f>T7_T!O10/T7_T!O$6</f>
+        <v>0.11445176642870218</v>
+      </c>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="41">
+        <f>T7_T!Q10/T7_T!Q$6</f>
+        <v>0.10916991443802355</v>
+      </c>
+      <c r="R10" s="42"/>
+      <c r="S10" s="41">
+        <f>T7_T!S10/T7_T!S$6</f>
+        <v>0.10838944011339476</v>
+      </c>
+      <c r="T10" s="42"/>
+      <c r="U10" s="41">
+        <f>T7_T!U10/T7_T!U$6</f>
+        <v>0.10679825527602768</v>
+      </c>
+      <c r="V10" s="42"/>
+      <c r="W10" s="41">
+        <f>T7_T!W10/T7_T!W$6</f>
+        <v>0.10520347188903913</v>
+      </c>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="41">
+        <f>T7_T!Y10/T7_T!Y$6</f>
+        <v>0.10895426240068713</v>
       </c>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="19"/>
       <c r="C11" s="12"/>
       <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9">
-        <v>268.89999999999998</v>
+      <c r="E11" s="41">
+        <f>T7_T!E11/T7_T!E$6</f>
+        <v>0.13541824041899581</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="9">
-        <v>275</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9">
-        <v>268.2</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9">
-        <v>266.3</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9">
-        <v>262.3</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9">
-        <v>256.2</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9">
-        <v>266.8</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9">
-        <v>259.7</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9">
-        <v>275</v>
-      </c>
-      <c r="V11" s="8"/>
-      <c r="W11" s="9">
-        <v>270.7</v>
-      </c>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="9">
-        <v>266.7</v>
+      <c r="G11" s="41">
+        <f>T7_T!G11/T7_T!G$6</f>
+        <v>0.13432325501880527</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="41">
+        <f>T7_T!I11/T7_T!I$6</f>
+        <v>0.1289361088409211</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="41">
+        <f>T7_T!K11/T7_T!K$6</f>
+        <v>0.12563691262502361</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="41">
+        <f>T7_T!M11/T7_T!M$6</f>
+        <v>0.12263886291378343</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="41">
+        <f>T7_T!O11/T7_T!O$6</f>
+        <v>0.11724327292696321</v>
+      </c>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="41">
+        <f>T7_T!Q11/T7_T!Q$6</f>
+        <v>0.11951798593379026</v>
+      </c>
+      <c r="R11" s="42"/>
+      <c r="S11" s="41">
+        <f>T7_T!S11/T7_T!S$6</f>
+        <v>0.11503366406803685</v>
+      </c>
+      <c r="T11" s="42"/>
+      <c r="U11" s="41">
+        <f>T7_T!U11/T7_T!U$6</f>
+        <v>0.12116138696744064</v>
+      </c>
+      <c r="V11" s="42"/>
+      <c r="W11" s="41">
+        <f>T7_T!W11/T7_T!W$6</f>
+        <v>0.11807039734810486</v>
+      </c>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="41">
+        <f>T7_T!Y11/T7_T!Y$6</f>
+        <v>0.11453725574404122</v>
       </c>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="19"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="14">
-        <v>263.2</v>
+      <c r="E12" s="41">
+        <f>T7_T!E12/T7_T!E$6</f>
+        <v>0.13254771617061992</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="14">
-        <v>254.4</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="14">
-        <v>265.60000000000002</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="14">
-        <v>266.3</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="14">
-        <v>265.89999999999998</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="14">
-        <v>276</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="14">
-        <v>268.39999999999998</v>
-      </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="14">
-        <v>281.10000000000002</v>
-      </c>
-      <c r="V12" s="8"/>
-      <c r="W12" s="14">
-        <v>278.39999999999998</v>
-      </c>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="14">
-        <v>270.10000000000002</v>
+      <c r="G12" s="41">
+        <f>T7_T!G12/T7_T!G$6</f>
+        <v>0.12426122209739658</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="41">
+        <f>T7_T!I12/T7_T!I$6</f>
+        <v>0.1235036777078025</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="41">
+        <f>T7_T!K12/T7_T!K$6</f>
+        <v>0.12530666163427062</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="41">
+        <f>T7_T!M12/T7_T!M$6</f>
+        <v>0.12450907050682625</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="41">
+        <f>T7_T!O12/T7_T!O$6</f>
+        <v>0.12168222588321435</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="41">
+        <f>T7_T!Q12/T7_T!Q$6</f>
+        <v>0.12363929579357612</v>
+      </c>
+      <c r="R12" s="42"/>
+      <c r="S12" s="41">
+        <f>T7_T!S12/T7_T!S$6</f>
+        <v>0.11888731396172926</v>
+      </c>
+      <c r="T12" s="42"/>
+      <c r="U12" s="41">
+        <f>T7_T!U12/T7_T!U$6</f>
+        <v>0.12384896682380933</v>
+      </c>
+      <c r="V12" s="42"/>
+      <c r="W12" s="41">
+        <f>T7_T!W12/T7_T!W$6</f>
+        <v>0.12142888297640336</v>
+      </c>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="41">
+        <f>T7_T!Y12/T7_T!Y$6</f>
+        <v>0.11599742323384153</v>
       </c>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="13"/>
@@ -1313,313 +1412,379 @@
       <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="9">
-        <v>262</v>
+      <c r="E13" s="41">
+        <f>T7_T!E13/T7_T!E$6</f>
+        <v>0.13194339527622501</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="9">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9">
-        <v>269.39999999999998</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9">
-        <v>269.5</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9">
-        <v>266.3</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9">
-        <v>253</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9">
-        <v>258.60000000000002</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="9">
-        <v>260.10000000000002</v>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9">
-        <v>272.39999999999998</v>
-      </c>
-      <c r="V13" s="8"/>
-      <c r="W13" s="9">
-        <v>270.89999999999998</v>
-      </c>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="9">
-        <v>284.10000000000002</v>
+      <c r="G13" s="41">
+        <f>T7_T!G13/T7_T!G$6</f>
+        <v>0.13036682459825136</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41">
+        <f>T7_T!I13/T7_T!I$6</f>
+        <v>0.12951300418249123</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="41">
+        <f>T7_T!K13/T7_T!K$6</f>
+        <v>0.12714663143989433</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="41">
+        <f>T7_T!M13/T7_T!M$6</f>
+        <v>0.12450907050682625</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="41">
+        <f>T7_T!O13/T7_T!O$6</f>
+        <v>0.11577887607541645</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="41">
+        <f>T7_T!Q13/T7_T!Q$6</f>
+        <v>0.11584464453702459</v>
+      </c>
+      <c r="R13" s="42"/>
+      <c r="S13" s="41">
+        <f>T7_T!S13/T7_T!S$6</f>
+        <v>0.11521084337349399</v>
+      </c>
+      <c r="T13" s="42"/>
+      <c r="U13" s="41">
+        <f>T7_T!U13/T7_T!U$6</f>
+        <v>0.12001586112702119</v>
+      </c>
+      <c r="V13" s="42"/>
+      <c r="W13" s="41">
+        <f>T7_T!W13/T7_T!W$6</f>
+        <v>0.11815763074104767</v>
+      </c>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="41">
+        <f>T7_T!Y13/T7_T!Y$6</f>
+        <v>0.12200987760360749</v>
       </c>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="31"/>
       <c r="B14" s="18"/>
       <c r="C14" s="12"/>
       <c r="D14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="9">
-        <v>233.2</v>
+      <c r="E14" s="41">
+        <f>T7_T!E14/T7_T!E$6</f>
+        <v>0.11743969381074683</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="9">
-        <v>235.7</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9">
-        <v>246.9</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9">
-        <v>249.2</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9">
-        <v>255.2</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9">
-        <v>260.5</v>
-      </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9">
-        <v>262.60000000000002</v>
-      </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="9">
-        <v>262.3</v>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="9">
-        <v>254.8</v>
-      </c>
-      <c r="V14" s="8"/>
-      <c r="W14" s="9">
-        <v>259.8</v>
-      </c>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="9">
-        <v>256.8</v>
+      <c r="G14" s="41">
+        <f>T7_T!G14/T7_T!G$6</f>
+        <v>0.11512724075611781</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="41">
+        <f>T7_T!I14/T7_T!I$6</f>
+        <v>0.11869621652805154</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="41">
+        <f>T7_T!K14/T7_T!K$6</f>
+        <v>0.11756935270805813</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="41">
+        <f>T7_T!M14/T7_T!M$6</f>
+        <v>0.1193192444361324</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="41">
+        <f>T7_T!O14/T7_T!O$6</f>
+        <v>0.11921105619622918</v>
+      </c>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="41">
+        <f>T7_T!Q14/T7_T!Q$6</f>
+        <v>0.11763651838910541</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="41">
+        <f>T7_T!S14/T7_T!S$6</f>
+        <v>0.11618532955350816</v>
+      </c>
+      <c r="T14" s="42"/>
+      <c r="U14" s="41">
+        <f>T7_T!U14/T7_T!U$6</f>
+        <v>0.112261532361105</v>
+      </c>
+      <c r="V14" s="42"/>
+      <c r="W14" s="41">
+        <f>T7_T!W14/T7_T!W$6</f>
+        <v>0.11331617743272127</v>
+      </c>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="41">
+        <f>T7_T!Y14/T7_T!Y$6</f>
+        <v>0.11028559158256389</v>
       </c>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A15" s="31"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="14">
-        <v>159.5</v>
+      <c r="E15" s="41">
+        <f>T7_T!E15/T7_T!E$6</f>
+        <v>8.0324318879991946E-2</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="14">
-        <v>178.5</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14">
-        <v>187.8</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="14">
-        <v>197</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="14">
-        <v>205.3</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="14">
-        <v>220.3</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="14">
-        <v>223.7</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="14">
-        <v>226.9</v>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="14">
-        <v>213.6</v>
-      </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="14">
-        <v>224.5</v>
-      </c>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="14">
-        <v>237.1</v>
+      <c r="G15" s="41">
+        <f>T7_T!G15/T7_T!G$6</f>
+        <v>8.7188003712206322E-2</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41">
+        <f>T7_T!I15/T7_T!I$6</f>
+        <v>9.0284120955723288E-2</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="41">
+        <f>T7_T!K15/T7_T!K$6</f>
+        <v>9.2942064540479347E-2</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="41">
+        <f>T7_T!M15/T7_T!M$6</f>
+        <v>9.5988404712923137E-2</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="41">
+        <f>T7_T!O15/T7_T!O$6</f>
+        <v>0.10081457074867291</v>
+      </c>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="41">
+        <f>T7_T!Q15/T7_T!Q$6</f>
+        <v>0.10021054517761949</v>
+      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="41">
+        <f>T7_T!S15/T7_T!S$6</f>
+        <v>0.1005049610205528</v>
+      </c>
+      <c r="T15" s="42"/>
+      <c r="U15" s="41">
+        <f>T7_T!U15/T7_T!U$6</f>
+        <v>9.4109353659073886E-2</v>
+      </c>
+      <c r="V15" s="42"/>
+      <c r="W15" s="41">
+        <f>T7_T!W15/T7_T!W$6</f>
+        <v>9.7919483578313787E-2</v>
+      </c>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="41">
+        <f>T7_T!Y15/T7_T!Y$6</f>
+        <v>0.10182520936225037</v>
       </c>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="31"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="14">
-        <v>92.1</v>
+      <c r="E16" s="41">
+        <f>T7_T!E16/T7_T!E$6</f>
+        <v>4.6381628644810394E-2</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="14">
-        <v>98.7</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14">
-        <v>114.5</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="14">
-        <v>127.7</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="14">
-        <v>136.9</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="14">
-        <v>150.69999999999999</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="14">
-        <v>154.69999999999999</v>
-      </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="14">
-        <v>164.1</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="14">
-        <v>166.5</v>
-      </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="14">
-        <v>170.9</v>
-      </c>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="14">
-        <v>170.2</v>
+      <c r="G16" s="41">
+        <f>T7_T!G16/T7_T!G$6</f>
+        <v>4.8209837346749378E-2</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41">
+        <f>T7_T!I16/T7_T!I$6</f>
+        <v>5.5045430508148648E-2</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41">
+        <f>T7_T!K16/T7_T!K$6</f>
+        <v>6.0247216455935088E-2</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41">
+        <f>T7_T!M16/T7_T!M$6</f>
+        <v>6.4007854871890771E-2</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="41">
+        <f>T7_T!O16/T7_T!O$6</f>
+        <v>6.8963939227530663E-2</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="41">
+        <f>T7_T!Q16/T7_T!Q$6</f>
+        <v>6.9300721229225454E-2</v>
+      </c>
+      <c r="R16" s="42"/>
+      <c r="S16" s="41">
+        <f>T7_T!S16/T7_T!S$6</f>
+        <v>7.2687810063784553E-2</v>
+      </c>
+      <c r="T16" s="42"/>
+      <c r="U16" s="41">
+        <f>T7_T!U16/T7_T!U$6</f>
+        <v>7.3357712473014064E-2</v>
+      </c>
+      <c r="V16" s="42"/>
+      <c r="W16" s="41">
+        <f>T7_T!W16/T7_T!W$6</f>
+        <v>7.4540934269638426E-2</v>
+      </c>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="41">
+        <f>T7_T!Y16/T7_T!Y$6</f>
+        <v>7.3094266695297394E-2</v>
       </c>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A17" s="31"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="9">
-        <v>35.9</v>
+      <c r="E17" s="41">
+        <f>T7_T!E17/T7_T!E$6</f>
+        <v>1.8079266757314801E-2</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="9">
-        <v>36</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9">
-        <v>45.1</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9">
-        <v>53.1</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9">
-        <v>61.4</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9">
-        <v>74.2</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9">
-        <v>78.3</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="9">
-        <v>87.9</v>
-      </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="V17" s="8"/>
-      <c r="W17" s="9">
-        <v>93.7</v>
-      </c>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="9">
-        <v>103.7</v>
+      <c r="G17" s="41">
+        <f>T7_T!G17/T7_T!G$6</f>
+        <v>1.7584135202461781E-2</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41">
+        <f>T7_T!I17/T7_T!I$6</f>
+        <v>2.1681649920676893E-2</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="41">
+        <f>T7_T!K17/T7_T!K$6</f>
+        <v>2.5051896584261182E-2</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="41">
+        <f>T7_T!M17/T7_T!M$6</f>
+        <v>2.8707686553207403E-2</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="41">
+        <f>T7_T!O17/T7_T!O$6</f>
+        <v>3.3955701995240714E-2</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="41">
+        <f>T7_T!Q17/T7_T!Q$6</f>
+        <v>3.5075930654481918E-2</v>
+      </c>
+      <c r="R17" s="42"/>
+      <c r="S17" s="41">
+        <f>T7_T!S17/T7_T!S$6</f>
+        <v>3.8935152374202697E-2</v>
+      </c>
+      <c r="T17" s="42"/>
+      <c r="U17" s="41">
+        <f>T7_T!U17/T7_T!U$6</f>
+        <v>4.0578049962550121E-2</v>
+      </c>
+      <c r="V17" s="42"/>
+      <c r="W17" s="41">
+        <f>T7_T!W17/T7_T!W$6</f>
+        <v>4.0868844593710478E-2</v>
+      </c>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="41">
+        <f>T7_T!Y17/T7_T!Y$6</f>
+        <v>4.453510843890917E-2</v>
       </c>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A18" s="31"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="9">
-        <v>24</v>
+      <c r="E18" s="41">
+        <f>T7_T!E18/T7_T!E$6</f>
+        <v>1.2086417887898474E-2</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="9">
-        <v>25.6</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9">
-        <v>31.2</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9">
-        <v>38.5</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9">
-        <v>44.5</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9">
-        <v>42</v>
-      </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9">
-        <v>43.9</v>
-      </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9">
-        <v>54.4</v>
-      </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="9">
-        <v>56.9</v>
-      </c>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="9">
-        <v>62.1</v>
+      <c r="G18" s="41">
+        <f>T7_T!G18/T7_T!G$6</f>
+        <v>1.2504273921750599E-2</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41">
+        <f>T7_T!I18/T7_T!I$6</f>
+        <v>1.4999278880823037E-2</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="41">
+        <f>T7_T!K18/T7_T!K$6</f>
+        <v>1.5899226269107381E-2</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="41">
+        <f>T7_T!M18/T7_T!M$6</f>
+        <v>1.8000748083037216E-2</v>
+      </c>
+      <c r="N18" s="42"/>
+      <c r="O18" s="41">
+        <f>T7_T!O18/T7_T!O$6</f>
+        <v>2.0364268716822259E-2</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="41">
+        <f>T7_T!Q18/T7_T!Q$6</f>
+        <v>1.881467544684854E-2</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="41">
+        <f>T7_T!S18/T7_T!S$6</f>
+        <v>1.9445428773919207E-2</v>
+      </c>
+      <c r="T18" s="42"/>
+      <c r="U18" s="41">
+        <f>T7_T!U18/T7_T!U$6</f>
+        <v>2.3967925276468256E-2</v>
+      </c>
+      <c r="V18" s="42"/>
+      <c r="W18" s="41">
+        <f>T7_T!W18/T7_T!W$6</f>
+        <v>2.4817900292231868E-2</v>
+      </c>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="41">
+        <f>T7_T!Y18/T7_T!Y$6</f>
+        <v>2.6669529740176081E-2</v>
       </c>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:26" ht="20" customHeight="1">
+      <c r="A19" s="31"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1650,6 +1815,957 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:Z18">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.39370078740157483" right="0.74803149606299213" top="0.9055118110236221" bottom="0.9055118110236221" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
+  <dimension ref="A1:Z19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="11.65"/>
+  <cols>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.09765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.09765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.09765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.09765625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.09765625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11" style="2" customWidth="1"/>
+    <col min="20" max="20" width="3.09765625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.09765625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.09765625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.09765625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="22">
+        <v>1985.7</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="22">
+        <v>2047.3</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22">
+        <v>2080.1</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="22">
+        <v>2119.6</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="22">
+        <v>2138.8000000000002</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="22">
+        <v>2185.1999999999998</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="22">
+        <v>2232.3000000000002</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="22">
+        <v>2257.6</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="22">
+        <v>2269.6999999999998</v>
+      </c>
+      <c r="V6" s="17"/>
+      <c r="W6" s="22">
+        <v>2292.6999999999998</v>
+      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="22">
+        <v>2328.5</v>
+      </c>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14">
+        <v>31.8</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14">
+        <v>41.2</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="14">
+        <v>33.9</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="14">
+        <v>31.3</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="14">
+        <v>31</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="14">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="14">
+        <v>37.9</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="14">
+        <v>35</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="14">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="14">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="14">
+        <v>157.6</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
+        <v>162.1</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="14">
+        <v>171.3</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="14">
+        <v>157.1</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="14">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="14">
+        <v>166.2</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="14">
+        <v>162.5</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="14">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="14">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="14">
+        <v>148.9</v>
+      </c>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9">
+        <v>220.7</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
+        <v>223.2</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9">
+        <v>214.6</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9">
+        <v>207.3</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9">
+        <v>209.7</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9">
+        <v>217.6</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9">
+        <v>219.4</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9">
+        <v>239.3</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9">
+        <v>229.3</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="9">
+        <v>236.7</v>
+      </c>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9">
+        <v>239</v>
+      </c>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9">
+        <v>248.3</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
+        <v>254.7</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9">
+        <v>249.4</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9">
+        <v>245</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9">
+        <v>248.6</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9">
+        <v>250.1</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9">
+        <v>243.7</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9">
+        <v>244.7</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9">
+        <v>242.4</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9">
+        <v>241.2</v>
+      </c>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9">
+        <v>253.7</v>
+      </c>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
+        <v>275</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9">
+        <v>268.2</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9">
+        <v>266.3</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9">
+        <v>262.3</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9">
+        <v>256.2</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9">
+        <v>266.8</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9">
+        <v>259.7</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9">
+        <v>275</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9">
+        <v>270.7</v>
+      </c>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9">
+        <v>266.7</v>
+      </c>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14">
+        <v>263.2</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="14">
+        <v>254.4</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="14">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="14">
+        <v>266.3</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="14">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="14">
+        <v>276</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="14">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="14">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="14">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="14">
+        <v>270.10000000000002</v>
+      </c>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9">
+        <v>262</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9">
+        <v>269.5</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9">
+        <v>266.3</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9">
+        <v>253</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9">
+        <v>258.60000000000002</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="9">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9">
+        <v>284.10000000000002</v>
+      </c>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>233.2</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
+        <v>235.7</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9">
+        <v>246.9</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9">
+        <v>249.2</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9">
+        <v>255.2</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9">
+        <v>260.5</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="9">
+        <v>262.3</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="9">
+        <v>254.8</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9">
+        <v>259.8</v>
+      </c>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9">
+        <v>256.8</v>
+      </c>
+      <c r="Z14" s="17"/>
+    </row>
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="14">
+        <v>159.5</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="14">
+        <v>178.5</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14">
+        <v>187.8</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="14">
+        <v>197</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="14">
+        <v>205.3</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="14">
+        <v>220.3</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="14">
+        <v>223.7</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="14">
+        <v>226.9</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="14">
+        <v>213.6</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="14">
+        <v>224.5</v>
+      </c>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="14">
+        <v>237.1</v>
+      </c>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14">
+        <v>92.1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="14">
+        <v>98.7</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14">
+        <v>114.5</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="14">
+        <v>127.7</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="14">
+        <v>136.9</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="14">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="14">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="14">
+        <v>164.1</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="14">
+        <v>166.5</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="14">
+        <v>170.9</v>
+      </c>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="14">
+        <v>170.2</v>
+      </c>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>35.9</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9">
+        <v>36</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9">
+        <v>45.1</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9">
+        <v>53.1</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9">
+        <v>74.2</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9">
+        <v>78.3</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9">
+        <v>87.9</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9">
+        <v>93.7</v>
+      </c>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="9">
+        <v>103.7</v>
+      </c>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9">
+        <v>31.2</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9">
+        <v>38.5</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9">
+        <v>42</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9">
+        <v>43.9</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="9">
+        <v>54.4</v>
+      </c>
+      <c r="V18" s="8"/>
+      <c r="W18" s="9">
+        <v>56.9</v>
+      </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="9">
+        <v>62.1</v>
+      </c>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" ht="20" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="B2:Z2"/>
@@ -1668,7 +2784,7 @@
     <mergeCell ref="M5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:Z18">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1682,8 +2798,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
@@ -1691,130 +2807,130 @@
       <selection activeCell="B1" sqref="B1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.09765625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.09765625" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.09765625" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.09765625" style="2" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.09765625" style="2" customWidth="1"/>
     <col min="17" max="17" width="11" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.09765625" style="2" customWidth="1"/>
     <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="3.09765625" style="2" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.09765625" style="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.09765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.5703125" style="1"/>
+    <col min="26" max="26" width="3.09765625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-    </row>
-    <row r="2" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="39"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-    </row>
-    <row r="3" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="39"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="39"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1844,59 +2960,59 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="39"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31" t="s">
+      <c r="R5" s="34"/>
+      <c r="S5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31" t="s">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31" t="s">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31" t="s">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="32"/>
-    </row>
-    <row r="6" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="39"/>
       <c r="B6" s="18"/>
       <c r="C6" s="24" t="s">
@@ -1948,7 +3064,7 @@
       </c>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="19"/>
       <c r="C7" s="12"/>
@@ -2000,7 +3116,7 @@
       </c>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="19"/>
       <c r="C8" s="12"/>
@@ -2052,7 +3168,7 @@
       </c>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="19"/>
       <c r="C9" s="12"/>
@@ -2104,7 +3220,7 @@
       </c>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="19"/>
       <c r="C10" s="12"/>
@@ -2156,7 +3272,7 @@
       </c>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="19"/>
       <c r="C11" s="12"/>
@@ -2208,7 +3324,7 @@
       </c>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="19"/>
       <c r="C12" s="12"/>
@@ -2260,7 +3376,7 @@
       </c>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -2312,7 +3428,7 @@
       </c>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="18"/>
       <c r="C14" s="12"/>
@@ -2364,7 +3480,7 @@
       </c>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -2416,7 +3532,7 @@
       </c>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -2468,7 +3584,7 @@
       </c>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -2520,7 +3636,7 @@
       </c>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -2572,7 +3688,7 @@
       </c>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="20" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2621,7 +3737,7 @@
     <mergeCell ref="S5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:Z18">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2635,8 +3751,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
@@ -2644,128 +3760,128 @@
       <selection activeCell="B1" sqref="B1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="4" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="4" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.09765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="4" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.09765625" style="2" customWidth="1"/>
     <col min="14" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" style="2" customWidth="1"/>
     <col min="16" max="16" width="4" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" style="2" customWidth="1"/>
     <col min="18" max="18" width="4" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" style="2" customWidth="1"/>
     <col min="20" max="20" width="4" style="2" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.09765625" style="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.09765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.5703125" style="1"/>
+    <col min="26" max="26" width="3.09765625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-    </row>
-    <row r="2" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-    </row>
-    <row r="3" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="21"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -2795,59 +3911,59 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31" t="s">
+      <c r="R5" s="34"/>
+      <c r="S5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31" t="s">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31" t="s">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31" t="s">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="32"/>
-    </row>
-    <row r="6" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="18"/>
       <c r="C6" s="24" t="s">
@@ -2899,7 +4015,7 @@
       </c>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="19"/>
       <c r="C7" s="12"/>
@@ -2951,7 +4067,7 @@
       </c>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="19"/>
       <c r="C8" s="12"/>
@@ -3003,7 +4119,7 @@
       </c>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="19"/>
       <c r="C9" s="12"/>
@@ -3055,7 +4171,7 @@
       </c>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="19"/>
       <c r="C10" s="12"/>
@@ -3107,7 +4223,7 @@
       </c>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="19"/>
       <c r="C11" s="12"/>
@@ -3159,7 +4275,7 @@
       </c>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>34</v>
       </c>
@@ -3213,7 +4329,7 @@
       </c>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -3265,7 +4381,7 @@
       </c>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="18"/>
       <c r="C14" s="12"/>
@@ -3317,7 +4433,7 @@
       </c>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -3369,7 +4485,7 @@
       </c>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -3421,7 +4537,7 @@
       </c>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -3473,7 +4589,7 @@
       </c>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -3525,7 +4641,7 @@
       </c>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="20" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3575,7 +4691,7 @@
     <mergeCell ref="W5:X5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:Z18">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3590,65 +4706,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">4XQ4D5TRQRHF-1623496119-513</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">
-      <Url>https://stats.mom.gov.sg/_layouts/DocIdRedir.aspx?ID=4XQ4D5TRQRHF-1623496119-513</Url>
-      <Description>4XQ4D5TRQRHF-1623496119-513</Description>
-    </_dlc_DocIdUrl>
-    <_dlc_DocIdPersistId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">false</_dlc_DocIdPersistId>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061D1B60B48AE2C4381B419F34A85A18B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8f4c4eb7c0a6ed6c0ddc723c58efda0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5775c44-5034-46ee-b1b0-8650967f43ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cab69d6e76fd2b3e146ab9f966a16f43" ns2:_="">
     <xsd:import namespace="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
@@ -3793,6 +4850,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">4XQ4D5TRQRHF-1623496119-513</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">
+      <Url>https://stats.mom.gov.sg/_layouts/DocIdRedir.aspx?ID=4XQ4D5TRQRHF-1623496119-513</Url>
+      <Description>4XQ4D5TRQRHF-1623496119-513</Description>
+    </_dlc_DocIdUrl>
+    <_dlc_DocIdPersistId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">false</_dlc_DocIdPersistId>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3803,17 +4919,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E1E5D72-9892-47A0-9CF5-D028A56D85BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028F2EAD-8E06-4EBA-A1DF-9EB5B4E72238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5659AF47-3969-414A-99B6-9C74532F53F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5659AF47-3969-414A-99B6-9C74532F53F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028F2EAD-8E06-4EBA-A1DF-9EB5B4E72238}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E1E5D72-9892-47A0-9CF5-D028A56D85BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DA4E5D-EB12-48EB-A7F5-D814CBC28E36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DA4E5D-EB12-48EB-A7F5-D814CBC28E36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>